--- a/21-22_KBL_stats.xlsx
+++ b/21-22_KBL_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project\2025\기타\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D31DCB4-AE89-4C7D-8C38-3016C88F91B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C99BF5-A4F6-4EDC-B2FA-316EB4DADF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C857A6F3-DAC3-47BF-9FFB-2634F9EBE6C3}"/>
+    <workbookView xWindow="28680" yWindow="-2745" windowWidth="29040" windowHeight="15720" xr2:uid="{C857A6F3-DAC3-47BF-9FFB-2634F9EBE6C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -592,13 +592,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SK</t>
-  </si>
-  <si>
     <t>송창무</t>
-  </si>
-  <si>
-    <t>KT</t>
   </si>
   <si>
     <t>김동욱</t>
@@ -625,9 +619,6 @@
     <t>캐디 라렌</t>
   </si>
   <si>
-    <t>KCC</t>
-  </si>
-  <si>
     <t>곽동기</t>
   </si>
   <si>
@@ -638,9 +629,6 @@
   </si>
   <si>
     <t>유병훈</t>
-  </si>
-  <si>
-    <t>모비스</t>
   </si>
   <si>
     <t>강병현</t>
@@ -665,9 +653,6 @@
   </si>
   <si>
     <t>정성호</t>
-  </si>
-  <si>
-    <t>DB</t>
   </si>
   <si>
     <t>김영훈</t>
@@ -703,9 +688,6 @@
     <t>조니 오브라이언트</t>
   </si>
   <si>
-    <t>소노</t>
-  </si>
-  <si>
     <t>김세창</t>
   </si>
   <si>
@@ -739,9 +721,6 @@
     <t>조한진</t>
   </si>
   <si>
-    <t>삼성</t>
-  </si>
-  <si>
     <t>강바일</t>
   </si>
   <si>
@@ -766,9 +745,6 @@
     <t>제키 카마이클</t>
   </si>
   <si>
-    <t>LG</t>
-  </si>
-  <si>
     <t>김종호</t>
   </si>
   <si>
@@ -784,9 +760,6 @@
     <t>정해원</t>
   </si>
   <si>
-    <t>가스공사</t>
-  </si>
-  <si>
     <t>디제이 화이트</t>
   </si>
   <si>
@@ -797,9 +770,6 @@
   </si>
   <si>
     <t>정영삼</t>
-  </si>
-  <si>
-    <t>KGC</t>
   </si>
   <si>
     <t>대릴 먼로</t>
@@ -840,6 +810,46 @@
   </si>
   <si>
     <t>아시아쿼터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 SK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수원 KT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산 KCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산 모비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원주 DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양 소노</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 삼성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창원 LG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구 가스공사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안양 KGC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1409,10 +1419,10 @@
   <dimension ref="A1:BP197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="BO2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="BO164" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="A1:BP184"/>
+      <selection pane="bottomRight" activeCell="C179" sqref="C179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1692,7 +1702,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>61</v>
@@ -1917,7 +1927,7 @@
         <v>178</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>128</v>
@@ -2141,7 +2151,7 @@
         <v>178</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>64</v>
@@ -2366,7 +2376,7 @@
         <v>178</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>58</v>
@@ -2582,7 +2592,7 @@
         <v>12.435991221653257</v>
       </c>
       <c r="BO5" s="22" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:68" x14ac:dyDescent="0.3">
@@ -2590,7 +2600,7 @@
         <v>178</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>158</v>
@@ -2814,7 +2824,7 @@
         <v>178</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>66</v>
@@ -3039,10 +3049,10 @@
         <v>178</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -3262,7 +3272,7 @@
         <v>178</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>60</v>
@@ -3485,7 +3495,7 @@
         <v>178</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>62</v>
@@ -3709,7 +3719,7 @@
         <v>178</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>59</v>
@@ -3934,7 +3944,7 @@
         <v>178</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>155</v>
@@ -4159,7 +4169,7 @@
         <v>178</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>73</v>
@@ -4384,7 +4394,7 @@
         <v>178</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>53</v>
@@ -4600,7 +4610,7 @@
         <v>7.1107630157879544</v>
       </c>
       <c r="BO14" s="22" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="BP14" s="18"/>
     </row>
@@ -4609,7 +4619,7 @@
         <v>178</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>55</v>
@@ -4834,7 +4844,7 @@
         <v>178</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>56</v>
@@ -5059,7 +5069,7 @@
         <v>178</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>80</v>
@@ -5283,7 +5293,7 @@
         <v>178</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>57</v>
@@ -5508,10 +5518,10 @@
         <v>178</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D19" s="4">
         <v>45</v>
@@ -5732,7 +5742,7 @@
         <v>178</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>115</v>
@@ -5956,10 +5966,10 @@
         <v>178</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="D21" s="16">
         <v>49</v>
@@ -6180,10 +6190,10 @@
         <v>178</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D22" s="15">
         <v>6</v>
@@ -6405,10 +6415,10 @@
         <v>178</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D23" s="17">
         <v>1</v>
@@ -6630,7 +6640,7 @@
         <v>178</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>76</v>
@@ -6855,7 +6865,7 @@
         <v>178</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>99</v>
@@ -7080,10 +7090,10 @@
         <v>178</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D26" s="17">
         <v>54</v>
@@ -7295,7 +7305,7 @@
         <v>17.057939169654215</v>
       </c>
       <c r="BO26" s="22" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:68" x14ac:dyDescent="0.3">
@@ -7303,10 +7313,10 @@
         <v>178</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D27" s="17">
         <v>5</v>
@@ -7528,7 +7538,7 @@
         <v>178</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>77</v>
@@ -7752,10 +7762,10 @@
         <v>178</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D29" s="17">
         <v>39</v>
@@ -7976,7 +7986,7 @@
         <v>178</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>133</v>
@@ -8201,7 +8211,7 @@
         <v>178</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>70</v>
@@ -8426,7 +8436,7 @@
         <v>178</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>74</v>
@@ -8650,7 +8660,7 @@
         <v>178</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>71</v>
@@ -8874,10 +8884,10 @@
         <v>178</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D34" s="17">
         <v>52</v>
@@ -9090,7 +9100,7 @@
         <v>12.860430485988898</v>
       </c>
       <c r="BO34" s="22" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="BP34" s="18"/>
     </row>
@@ -9099,7 +9109,7 @@
         <v>178</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>67</v>
@@ -9324,7 +9334,7 @@
         <v>178</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>69</v>
@@ -9549,7 +9559,7 @@
         <v>178</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>72</v>
@@ -9773,10 +9783,10 @@
         <v>178</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>190</v>
+        <v>254</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D38" s="17">
         <v>3</v>
@@ -9998,7 +10008,7 @@
         <v>178</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>190</v>
+        <v>254</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>85</v>
@@ -10220,7 +10230,7 @@
         <v>178</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>190</v>
+        <v>254</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>89</v>
@@ -10445,7 +10455,7 @@
         <v>178</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>190</v>
+        <v>254</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>161</v>
@@ -10666,7 +10676,7 @@
         <v>178</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>190</v>
+        <v>254</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>98</v>
@@ -10891,7 +10901,7 @@
         <v>178</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>190</v>
+        <v>254</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>123</v>
@@ -11116,7 +11126,7 @@
         <v>178</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>190</v>
+        <v>254</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>78</v>
@@ -11341,10 +11351,10 @@
         <v>178</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>190</v>
+        <v>254</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D45" s="16">
         <v>51</v>
@@ -11557,7 +11567,7 @@
         <v>7.4925074925074933</v>
       </c>
       <c r="BO45" s="22" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="BP45" s="18"/>
     </row>
@@ -11566,10 +11576,10 @@
         <v>178</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="D46" s="4">
         <v>35</v>
@@ -11789,7 +11799,7 @@
         <v>178</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>190</v>
+        <v>254</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>87</v>
@@ -12014,7 +12024,7 @@
         <v>178</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>190</v>
+        <v>254</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>83</v>
@@ -12239,7 +12249,7 @@
         <v>178</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>190</v>
+        <v>254</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>63</v>
@@ -12464,10 +12474,10 @@
         <v>178</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>190</v>
+        <v>254</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D50" s="4">
         <v>19</v>
@@ -12689,7 +12699,7 @@
         <v>178</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>190</v>
+        <v>254</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>110</v>
@@ -12913,7 +12923,7 @@
         <v>178</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>190</v>
+        <v>254</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>84</v>
@@ -13138,7 +13148,7 @@
         <v>178</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>190</v>
+        <v>254</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>117</v>
@@ -13362,7 +13372,7 @@
         <v>178</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>190</v>
+        <v>254</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>90</v>
@@ -13586,7 +13596,7 @@
         <v>178</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>190</v>
+        <v>254</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>88</v>
@@ -13811,7 +13821,7 @@
         <v>178</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>190</v>
+        <v>254</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>82</v>
@@ -14036,10 +14046,10 @@
         <v>178</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D57" s="4">
         <v>1</v>
@@ -14261,7 +14271,7 @@
         <v>178</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>95</v>
@@ -14485,10 +14495,10 @@
         <v>178</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D59" s="4">
         <v>31</v>
@@ -14710,10 +14720,10 @@
         <v>178</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D60" s="4">
         <v>10</v>
@@ -14935,7 +14945,7 @@
         <v>178</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>106</v>
@@ -15160,10 +15170,10 @@
         <v>178</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="D62" s="4">
         <v>43</v>
@@ -15376,7 +15386,7 @@
         <v>11.990738188433763</v>
       </c>
       <c r="BO62" s="22" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="BP62" s="18"/>
     </row>
@@ -15385,7 +15395,7 @@
         <v>178</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>149</v>
@@ -15610,7 +15620,7 @@
         <v>178</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>101</v>
@@ -15835,7 +15845,7 @@
         <v>178</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>97</v>
@@ -16059,10 +16069,10 @@
         <v>178</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D66" s="16">
         <v>31</v>
@@ -16275,7 +16285,7 @@
         <v>18.924689440993788</v>
       </c>
       <c r="BO66" s="22" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="BP66" s="18"/>
     </row>
@@ -16284,10 +16294,10 @@
         <v>178</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D67" s="4">
         <v>2</v>
@@ -16509,7 +16519,7 @@
         <v>178</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>93</v>
@@ -16734,7 +16744,7 @@
         <v>178</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>122</v>
@@ -16959,10 +16969,10 @@
         <v>178</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D70" s="16">
         <v>53</v>
@@ -17183,7 +17193,7 @@
         <v>178</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>92</v>
@@ -17406,10 +17416,10 @@
         <v>178</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D72" s="4">
         <v>11</v>
@@ -17631,7 +17641,7 @@
         <v>178</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>96</v>
@@ -17856,7 +17866,7 @@
         <v>178</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>91</v>
@@ -18081,7 +18091,7 @@
         <v>178</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>103</v>
@@ -18306,10 +18316,10 @@
         <v>178</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D76" s="4">
         <v>38</v>
@@ -18531,7 +18541,7 @@
         <v>178</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>102</v>
@@ -18756,7 +18766,7 @@
         <v>178</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>159</v>
@@ -18977,7 +18987,7 @@
         <v>178</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>113</v>
@@ -19202,7 +19212,7 @@
         <v>178</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>108</v>
@@ -19425,10 +19435,10 @@
         <v>178</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D81" s="4">
         <v>25</v>
@@ -19641,7 +19651,7 @@
         <v>12.371526456033498</v>
       </c>
       <c r="BO81" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="BP81" s="18"/>
     </row>
@@ -19650,10 +19660,10 @@
         <v>178</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D82" s="4">
         <v>43</v>
@@ -19865,7 +19875,7 @@
         <v>10.606703436571914</v>
       </c>
       <c r="BO82" s="22" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="BP82" s="18"/>
     </row>
@@ -19874,10 +19884,10 @@
         <v>178</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D83" s="16">
         <v>2</v>
@@ -20099,10 +20109,10 @@
         <v>178</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="D84" s="4">
         <v>10</v>
@@ -20324,10 +20334,10 @@
         <v>178</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D85" s="4">
         <v>7</v>
@@ -20546,7 +20556,7 @@
         <v>178</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>111</v>
@@ -20770,10 +20780,10 @@
         <v>178</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D87" s="4">
         <v>7</v>
@@ -20994,10 +21004,10 @@
         <v>178</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D88" s="4">
         <v>33</v>
@@ -21218,10 +21228,10 @@
         <v>178</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -21443,7 +21453,7 @@
         <v>178</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>107</v>
@@ -21667,7 +21677,7 @@
         <v>178</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>112</v>
@@ -21891,7 +21901,7 @@
         <v>178</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>157</v>
@@ -22114,10 +22124,10 @@
         <v>178</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D93" s="4">
         <v>41</v>
@@ -22338,10 +22348,10 @@
         <v>178</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D94" s="4">
         <v>39</v>
@@ -22554,7 +22564,7 @@
         <v>12.438594281395641</v>
       </c>
       <c r="BO94" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="BP94" s="18"/>
     </row>
@@ -22563,7 +22573,7 @@
         <v>178</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>86</v>
@@ -22786,7 +22796,7 @@
         <v>178</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>118</v>
@@ -23011,10 +23021,10 @@
         <v>178</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D97" s="4">
         <v>15</v>
@@ -23236,7 +23246,7 @@
         <v>178</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>114</v>
@@ -23461,10 +23471,10 @@
         <v>178</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D99" s="16">
         <v>49</v>
@@ -23677,7 +23687,7 @@
         <v>13.346175013758945</v>
       </c>
       <c r="BO99" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="100" spans="1:68" x14ac:dyDescent="0.3">
@@ -23685,10 +23695,10 @@
         <v>178</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D100" s="4">
         <v>11</v>
@@ -23910,10 +23920,10 @@
         <v>178</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D101" s="4">
         <v>24</v>
@@ -24134,10 +24144,10 @@
         <v>178</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D102" s="4">
         <v>16</v>
@@ -24358,10 +24368,10 @@
         <v>178</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="D103" s="4">
         <v>50</v>
@@ -24580,7 +24590,7 @@
         <v>178</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>79</v>
@@ -24805,10 +24815,10 @@
         <v>178</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D105" s="4">
         <v>29</v>
@@ -25029,7 +25039,7 @@
         <v>178</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>117</v>
@@ -25254,7 +25264,7 @@
         <v>178</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>156</v>
@@ -25479,10 +25489,10 @@
         <v>178</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D108" s="4">
         <v>19</v>
@@ -25704,10 +25714,10 @@
         <v>178</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D109" s="4">
         <v>19</v>
@@ -25920,7 +25930,7 @@
         <v>10.127931769722816</v>
       </c>
       <c r="BO109" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="BP109" s="18"/>
     </row>
@@ -25929,10 +25939,10 @@
         <v>178</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D110" s="4">
         <v>4</v>
@@ -26153,10 +26163,10 @@
         <v>178</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D111" s="4">
         <v>34</v>
@@ -26378,7 +26388,7 @@
         <v>178</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>104</v>
@@ -26603,7 +26613,7 @@
         <v>178</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>116</v>
@@ -26828,7 +26838,7 @@
         <v>178</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>119</v>
@@ -27053,10 +27063,10 @@
         <v>178</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D115" s="4">
         <v>20</v>
@@ -27278,7 +27288,7 @@
         <v>178</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>151</v>
@@ -27503,7 +27513,7 @@
         <v>178</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>129</v>
@@ -27726,7 +27736,7 @@
         <v>178</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>100</v>
@@ -27950,7 +27960,7 @@
         <v>178</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>65</v>
@@ -28175,10 +28185,10 @@
         <v>178</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D120" s="4">
         <v>36</v>
@@ -28400,10 +28410,10 @@
         <v>178</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D121" s="4">
         <v>24</v>
@@ -28614,7 +28624,7 @@
         <v>15.517408592765008</v>
       </c>
       <c r="BO121" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="BP121" s="18"/>
     </row>
@@ -28623,7 +28633,7 @@
         <v>178</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>127</v>
@@ -28844,7 +28854,7 @@
         <v>178</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>125</v>
@@ -29068,7 +29078,7 @@
         <v>178</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>81</v>
@@ -29292,7 +29302,7 @@
         <v>178</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>141</v>
@@ -29516,10 +29526,10 @@
         <v>178</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D126" s="4">
         <v>28</v>
@@ -29741,10 +29751,10 @@
         <v>178</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D127" s="4">
         <v>49</v>
@@ -29966,10 +29976,10 @@
         <v>178</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D128" s="4">
         <v>3</v>
@@ -30190,10 +30200,10 @@
         <v>178</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="D129" s="16">
         <v>15</v>
@@ -30415,10 +30425,10 @@
         <v>178</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D130" s="4">
         <v>8</v>
@@ -30631,7 +30641,7 @@
         <v>17.594369801663468</v>
       </c>
       <c r="BO130" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="BP130" s="18"/>
     </row>
@@ -30640,7 +30650,7 @@
         <v>178</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>130</v>
@@ -30864,7 +30874,7 @@
         <v>178</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>126</v>
@@ -31089,10 +31099,10 @@
         <v>178</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D133" s="4">
         <v>47</v>
@@ -31313,10 +31323,10 @@
         <v>178</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D134" s="4">
         <v>4</v>
@@ -31538,7 +31548,7 @@
         <v>178</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>94</v>
@@ -31763,7 +31773,7 @@
         <v>178</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>142</v>
@@ -31988,7 +31998,7 @@
         <v>178</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>137</v>
@@ -32213,10 +32223,10 @@
         <v>178</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D138" s="16">
         <v>27</v>
@@ -32437,10 +32447,10 @@
         <v>178</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D139" s="4">
         <v>25</v>
@@ -32651,7 +32661,7 @@
         <v>17.279296261388627</v>
       </c>
       <c r="BO139" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="140" spans="1:68" x14ac:dyDescent="0.3">
@@ -32659,7 +32669,7 @@
         <v>178</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>105</v>
@@ -32883,7 +32893,7 @@
         <v>178</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>132</v>
@@ -33099,7 +33109,7 @@
         <v>11.937753144318908</v>
       </c>
       <c r="BO141" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="BP141" s="18"/>
     </row>
@@ -33108,7 +33118,7 @@
         <v>178</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>139</v>
@@ -33333,7 +33343,7 @@
         <v>178</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>136</v>
@@ -33558,10 +33568,10 @@
         <v>178</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D144" s="4">
         <v>18</v>
@@ -33783,7 +33793,7 @@
         <v>178</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>140</v>
@@ -34007,7 +34017,7 @@
         <v>178</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>134</v>
@@ -34232,7 +34242,7 @@
         <v>178</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>138</v>
@@ -34457,10 +34467,10 @@
         <v>178</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D148" s="4">
         <v>24</v>
@@ -34682,7 +34692,7 @@
         <v>178</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>135</v>
@@ -34906,7 +34916,7 @@
         <v>178</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>143</v>
@@ -35130,7 +35140,7 @@
         <v>178</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>150</v>
@@ -35355,7 +35365,7 @@
         <v>178</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>109</v>
@@ -35580,10 +35590,10 @@
         <v>178</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D153" s="4">
         <v>22</v>
@@ -35796,7 +35806,7 @@
         <v>9.4126506024096397</v>
       </c>
       <c r="BO153" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="BP153" s="18"/>
     </row>
@@ -35805,7 +35815,7 @@
         <v>178</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>148</v>
@@ -36030,7 +36040,7 @@
         <v>178</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>147</v>
@@ -36069,7 +36079,7 @@
         <v>2.94</v>
       </c>
       <c r="N155" s="7">
-        <f t="shared" ref="N155:N186" si="115">J155/K155</f>
+        <f t="shared" ref="N155:N184" si="115">J155/K155</f>
         <v>0.44897959183673469</v>
       </c>
       <c r="O155" s="2">
@@ -36255,7 +36265,7 @@
         <v>178</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>144</v>
@@ -36471,7 +36481,7 @@
         <v>8.1382731359479141</v>
       </c>
       <c r="BO156" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="157" spans="1:68" x14ac:dyDescent="0.3">
@@ -36479,7 +36489,7 @@
         <v>178</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>152</v>
@@ -36703,7 +36713,7 @@
         <v>178</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>146</v>
@@ -36926,7 +36936,7 @@
         <v>178</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>154</v>
@@ -36983,7 +36993,7 @@
         <v>1.5</v>
       </c>
       <c r="S159" s="7">
-        <f t="shared" ref="S159:S197" si="116">O159/P159</f>
+        <f t="shared" ref="S159:S184" si="116">O159/P159</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="T159" s="4">
@@ -37151,7 +37161,7 @@
         <v>178</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>75</v>
@@ -37375,10 +37385,10 @@
         <v>178</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D161" s="4">
         <v>9</v>
@@ -37600,10 +37610,10 @@
         <v>178</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="D162" s="4">
         <v>54</v>
@@ -37621,7 +37631,7 @@
         <v>402</v>
       </c>
       <c r="I162" s="5">
-        <f t="shared" ref="I162:I193" si="117">H162/$D162</f>
+        <f t="shared" ref="I162:I184" si="117">H162/$D162</f>
         <v>7.4444444444444446</v>
       </c>
       <c r="J162" s="2">
@@ -37631,11 +37641,11 @@
         <v>336</v>
       </c>
       <c r="L162" s="5">
-        <f t="shared" ref="L162:L197" si="118">J162/$D162</f>
+        <f t="shared" ref="L162:L184" si="118">J162/$D162</f>
         <v>2.5925925925925926</v>
       </c>
       <c r="M162" s="5">
-        <f t="shared" ref="M162:M197" si="119">K162/$D162</f>
+        <f t="shared" ref="M162:M184" si="119">K162/$D162</f>
         <v>6.2222222222222223</v>
       </c>
       <c r="N162" s="7">
@@ -37649,11 +37659,11 @@
         <v>99</v>
       </c>
       <c r="Q162" s="5">
-        <f t="shared" ref="Q162:Q197" si="120">O162/$D162</f>
+        <f t="shared" ref="Q162:Q184" si="120">O162/$D162</f>
         <v>1</v>
       </c>
       <c r="R162" s="5">
-        <f t="shared" ref="R162:R197" si="121">P162/$D162</f>
+        <f t="shared" ref="R162:R184" si="121">P162/$D162</f>
         <v>1.8333333333333333</v>
       </c>
       <c r="S162" s="7">
@@ -37667,11 +37677,11 @@
         <v>237</v>
       </c>
       <c r="V162" s="5">
-        <f t="shared" ref="V162:V197" si="122">T162/$D162</f>
+        <f t="shared" ref="V162:V184" si="122">T162/$D162</f>
         <v>1.5925925925925926</v>
       </c>
       <c r="W162" s="5">
-        <f t="shared" ref="W162:W197" si="123">U162/$D162</f>
+        <f t="shared" ref="W162:W184" si="123">U162/$D162</f>
         <v>4.3888888888888893</v>
       </c>
       <c r="X162" s="7">
@@ -37685,11 +37695,11 @@
         <v>51</v>
       </c>
       <c r="AA162" s="5">
-        <f t="shared" ref="AA162:AA197" si="124">Y162/$D162</f>
+        <f t="shared" ref="AA162:AA184" si="124">Y162/$D162</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="AB162" s="5">
-        <f t="shared" ref="AB162:AB197" si="125">Z162/$D162</f>
+        <f t="shared" ref="AB162:AB184" si="125">Z162/$D162</f>
         <v>0.94444444444444442</v>
       </c>
       <c r="AC162" s="7">
@@ -37699,56 +37709,56 @@
         <v>111</v>
       </c>
       <c r="AE162" s="5">
-        <f t="shared" ref="AE162:AE193" si="126">AD162/$D162</f>
+        <f t="shared" ref="AE162:AE184" si="126">AD162/$D162</f>
         <v>2.0555555555555554</v>
       </c>
       <c r="AF162" s="4">
         <v>31</v>
       </c>
       <c r="AG162" s="5">
-        <f t="shared" ref="AG162:AG193" si="127">AF162/$D162</f>
+        <f t="shared" ref="AG162:AG184" si="127">AF162/$D162</f>
         <v>0.57407407407407407</v>
       </c>
       <c r="AH162" s="4">
         <v>80</v>
       </c>
       <c r="AI162" s="5">
-        <f t="shared" ref="AI162:AI193" si="128">AH162/$D162</f>
+        <f t="shared" ref="AI162:AI184" si="128">AH162/$D162</f>
         <v>1.4814814814814814</v>
       </c>
       <c r="AJ162" s="4">
         <v>38</v>
       </c>
       <c r="AK162" s="5">
-        <f t="shared" ref="AK162:AK193" si="129">AJ162/$D162</f>
+        <f t="shared" ref="AK162:AK184" si="129">AJ162/$D162</f>
         <v>0.70370370370370372</v>
       </c>
       <c r="AL162" s="4">
         <v>27</v>
       </c>
       <c r="AM162" s="5">
-        <f t="shared" ref="AM162:AM193" si="130">AL162/$D162</f>
+        <f t="shared" ref="AM162:AM184" si="130">AL162/$D162</f>
         <v>0.5</v>
       </c>
       <c r="AN162" s="4">
         <v>2</v>
       </c>
       <c r="AO162" s="5">
-        <f t="shared" ref="AO162:AO193" si="131">AN162/$D162</f>
+        <f t="shared" ref="AO162:AO184" si="131">AN162/$D162</f>
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="AP162" s="10">
         <v>24</v>
       </c>
       <c r="AQ162" s="5">
-        <f t="shared" ref="AQ162:AQ193" si="132">AP162/$D162</f>
+        <f t="shared" ref="AQ162:AQ184" si="132">AP162/$D162</f>
         <v>0.44444444444444442</v>
       </c>
       <c r="AR162" s="4">
         <v>117</v>
       </c>
       <c r="AS162" s="5">
-        <f t="shared" ref="AS162:AS193" si="133">AR162/$D162</f>
+        <f t="shared" ref="AS162:AS184" si="133">AR162/$D162</f>
         <v>2.1666666666666665</v>
       </c>
       <c r="AT162" s="6">
@@ -37824,10 +37834,10 @@
         <v>178</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="D163" s="16">
         <v>35</v>
@@ -38047,7 +38057,7 @@
         <v>178</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>153</v>
@@ -38272,7 +38282,7 @@
         <v>178</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>145</v>
@@ -38497,7 +38507,7 @@
         <v>178</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>131</v>
@@ -38721,10 +38731,10 @@
         <v>178</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D167" s="4">
         <v>48</v>
@@ -38937,7 +38947,7 @@
         <v>16.308922558922557</v>
       </c>
       <c r="BO167" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="BP167" s="18"/>
     </row>
@@ -38946,7 +38956,7 @@
         <v>178</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>68</v>
@@ -39171,10 +39181,10 @@
         <v>178</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D169" s="4">
         <v>5</v>
@@ -39396,7 +39406,7 @@
         <v>178</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>149</v>
@@ -39621,10 +39631,10 @@
         <v>178</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D171" s="4">
         <v>9</v>
@@ -39846,10 +39856,10 @@
         <v>178</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D172" s="16">
         <v>52</v>
@@ -40069,10 +40079,10 @@
         <v>178</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D173" s="4">
         <v>3</v>
@@ -40294,10 +40304,10 @@
         <v>178</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D174" s="4">
         <v>29</v>
@@ -40519,10 +40529,10 @@
         <v>178</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D175" s="4">
         <v>43</v>
@@ -40735,7 +40745,7 @@
         <v>11.296048688275164</v>
       </c>
       <c r="BO175" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="176" spans="1:68" x14ac:dyDescent="0.3">
@@ -40743,7 +40753,7 @@
         <v>178</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>54</v>
@@ -40968,10 +40978,10 @@
         <v>178</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D177" s="4">
         <v>36</v>
@@ -41193,7 +41203,7 @@
         <v>178</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>160</v>
@@ -41417,7 +41427,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>121</v>
@@ -41642,10 +41652,10 @@
         <v>178</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D180" s="4">
         <v>6</v>
@@ -41867,7 +41877,7 @@
         <v>178</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>124</v>
@@ -42090,10 +42100,10 @@
         <v>178</v>
       </c>
       <c r="B182" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="D182" s="4">
         <v>12</v>
@@ -42165,7 +42175,7 @@
         <v>0</v>
       </c>
       <c r="X182" s="7" t="e">
-        <f t="shared" ref="X182:X197" si="136">T182/U182</f>
+        <f t="shared" ref="X182:X184" si="136">T182/U182</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Y182" s="4">
@@ -42315,10 +42325,10 @@
         <v>178</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D183" s="4">
         <v>47</v>
@@ -42539,7 +42549,7 @@
         <v>178</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>120</v>

--- a/21-22_KBL_stats.xlsx
+++ b/21-22_KBL_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project\2025\기타\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C99BF5-A4F6-4EDC-B2FA-316EB4DADF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9608EA-B713-433E-B8B0-187F0E912FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2745" windowWidth="29040" windowHeight="15720" xr2:uid="{C857A6F3-DAC3-47BF-9FFB-2634F9EBE6C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C857A6F3-DAC3-47BF-9FFB-2634F9EBE6C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1419,10 +1419,10 @@
   <dimension ref="A1:BP197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="BO164" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AX26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C179" sqref="C179"/>
+      <selection pane="bottomRight" activeCell="BO45" sqref="BO45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11342,7 +11342,7 @@
         <v>8.9802201903340162</v>
       </c>
       <c r="BO44" t="s">
-        <v>176</v>
+        <v>250</v>
       </c>
       <c r="BP44" s="18"/>
     </row>
